--- a/ct/logs/segcapsr3/augval.xlsx
+++ b/ct/logs/segcapsr3/augval.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomoharu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomoharu/NewTensor/forGCE/ct/logs/segcapsr3/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -428,11 +428,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-48933536"/>
-        <c:axId val="-49056560"/>
+        <c:axId val="1793634864"/>
+        <c:axId val="1793646256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-48933536"/>
+        <c:axId val="1793634864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -553,7 +553,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-49056560"/>
+        <c:crossAx val="1793646256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -563,7 +563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-49056560"/>
+        <c:axId val="1793646256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.25"/>
@@ -697,7 +697,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-48933536"/>
+        <c:crossAx val="1793634864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -883,15 +883,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'44'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>out_seg_dice_hard</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Train</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -995,15 +987,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'44'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>val_out_seg_dice_hard</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Validation</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1112,16 +1096,30 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-47169664"/>
-        <c:axId val="-46588320"/>
+        <c:axId val="1805805696"/>
+        <c:axId val="1805809088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-47169664"/>
+        <c:axId val="1805805696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1222,16 +1220,17 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-46588320"/>
+        <c:crossAx val="1805809088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="5"/>
+        <c:tickMarkSkip val="5"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-46588320"/>
+        <c:axId val="1805809088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1359,7 +1358,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-47169664"/>
+        <c:crossAx val="1805805696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -2588,16 +2587,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
